--- a/01_Acquifer Pumping Test/06_지하수 이용실태 현장조사표/iyong_template.xlsx
+++ b/01_Acquifer Pumping Test/06_지하수 이용실태 현장조사표/iyong_template.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\05_Send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A16254FA-2385-494A-95BD-3A96A2BFEF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78A34AC9-407C-4C33-BCC1-FAAC868EA205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{347E34CF-5E16-4148-A84C-C9E6297728F0}"/>
+    <workbookView xWindow="39180" yWindow="780" windowWidth="29370" windowHeight="19980" xr2:uid="{6A065026-AEC8-4C9B-BA8A-BC3B9A62DC90}"/>
   </bookViews>
   <sheets>
     <sheet name="data_out" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="65">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,7 +300,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -345,13 +352,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,12 +763,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F81B768-4C9F-4C70-8432-F3746369BBA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835C0184-38DB-4082-9A5D-915EBFA311BE}">
   <sheetPr codeName="Sheet4_data_out"/>
   <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -956,10 +963,10 @@
         <v>56</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>55</v>
@@ -1042,15 +1049,23 @@
       <c r="AI2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AL2" s="5"/>
+      <c r="AJ2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="AM2" s="5">
-        <v>3.8</v>
+        <v>0.69</v>
       </c>
       <c r="AN2" s="5">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="5">
-        <v>1322</v>
+        <v>240</v>
       </c>
       <c r="AP2" s="4" t="s">
         <v>55</v>
@@ -1074,13 +1089,13 @@
         <v>40</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AX2" s="4" t="s">
         <v>55</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>55</v>
@@ -1112,10 +1127,10 @@
         <v>56</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>55</v>
@@ -1198,15 +1213,23 @@
       <c r="AI3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AL3" s="5"/>
+      <c r="AJ3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="AM3" s="5">
-        <v>3.2</v>
+        <v>0.69</v>
       </c>
       <c r="AN3" s="5">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="AO3" s="5">
-        <v>1103</v>
+        <v>240</v>
       </c>
       <c r="AP3" s="4" t="s">
         <v>55</v>
@@ -1230,13 +1253,13 @@
         <v>40</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AX3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AZ3" s="4" t="s">
         <v>55</v>
@@ -1349,12 +1372,20 @@
         <v>365</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL4" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="AM4" s="5">
         <v>0.5</v>
       </c>
@@ -1505,14 +1536,22 @@
         <v>365</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL5" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="AM5" s="5">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="AN5" s="5">
         <v>92</v>
@@ -1661,20 +1700,28 @@
         <v>365</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL6" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="AM6" s="5">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="AN6" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO6" s="5">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="AP6" s="4" t="s">
         <v>55</v>
@@ -1721,10 +1768,10 @@
         <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>55</v>
@@ -1799,10 +1846,10 @@
         <v>55</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD7" s="4" t="s">
         <v>55</v>
@@ -1820,11 +1867,19 @@
         <v>55</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL7" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="AM7" s="5">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="AN7" s="5">
         <v>98</v>
@@ -1857,16 +1912,16 @@
         <v>56</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AY7" s="4" t="s">
         <v>56</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA7" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BB7" s="4" t="s">
         <v>55</v>
@@ -1976,11 +2031,19 @@
         <v>55</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL8" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="AM8" s="5">
-        <v>7.7</v>
+        <v>7.74</v>
       </c>
       <c r="AN8" s="5">
         <v>224</v>
@@ -2132,9 +2195,17 @@
         <v>55</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL9" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="AM9" s="5">
         <v>8</v>
       </c>
